--- a/file1.xlsx
+++ b/file1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\powershell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\powershell\Powershell-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B9ADE-38EC-4837-83F0-4932C08ECF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3383ED2-D5A1-4B76-9C98-A7A7831BDC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8994" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8994" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnterValue" sheetId="2" r:id="rId1"/>
     <sheet name="WhoWantsChips" sheetId="1" r:id="rId2"/>
     <sheet name="D1" sheetId="3" r:id="rId3"/>
-    <sheet name="D2" sheetId="4" r:id="rId4"/>
+    <sheet name="Compare D1 D2" sheetId="5" r:id="rId4"/>
+    <sheet name="D2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -929,10 +930,373 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3A7214-8E5F-4187-8318-0B79BEAB99F7}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5812CF61-C603-4649-9FF1-EB8DA4186C10}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
